--- a/5种模型性能比较.xlsx
+++ b/5种模型性能比较.xlsx
@@ -482,25 +482,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8826379310344827</v>
+        <v>0.9050482209013598</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8</v>
+        <v>0.7851207013937896</v>
       </c>
       <c r="D2" t="n">
-        <v>0.875</v>
+        <v>0.9049572295621043</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8226950354609929</v>
+        <v>0.8451393406297603</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8578431372549019</v>
+        <v>0.8632704525570623</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8434782608695652</v>
+        <v>0.8568840579710144</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8111888111888111</v>
+        <v>0.8136607599843231</v>
       </c>
     </row>
     <row r="3">
@@ -510,25 +510,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7335344827586205</v>
+        <v>0.7585870704900411</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6620689655172414</v>
+        <v>0.7296091653225252</v>
       </c>
       <c r="D3" t="n">
-        <v>0.805</v>
+        <v>0.7875649756575572</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.6941006304981996</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.8137012848275351</v>
       </c>
       <c r="G3" t="n">
-        <v>0.744927536231884</v>
+        <v>0.7634057971014492</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.710108055252746</v>
       </c>
     </row>
     <row r="4">
@@ -538,25 +538,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8716551724137932</v>
+        <v>0.905696602486997</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7379310344827587</v>
+        <v>0.7969499037294738</v>
       </c>
       <c r="D4" t="n">
-        <v>0.86</v>
+        <v>0.8729124981618284</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7925925925925926</v>
+        <v>0.8058752341118808</v>
       </c>
       <c r="F4" t="n">
-        <v>0.819047619047619</v>
+        <v>0.866220350573054</v>
       </c>
       <c r="G4" t="n">
-        <v>0.808695652173913</v>
+        <v>0.8427536231884059</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7642857142857142</v>
+        <v>0.8010657596851832</v>
       </c>
     </row>
     <row r="5">
@@ -566,25 +566,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8735172413793105</v>
+        <v>0.9025089142465653</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7517241379310344</v>
+        <v>0.7853151872614607</v>
       </c>
       <c r="D5" t="n">
-        <v>0.87</v>
+        <v>0.874124457433297</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8074074074074075</v>
+        <v>0.8055281657106471</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8285714285714286</v>
+        <v>0.8593211500328586</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8202898550724638</v>
+        <v>0.8384057971014492</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7785714285714286</v>
+        <v>0.7946034512259517</v>
       </c>
     </row>
     <row r="6">
@@ -594,25 +594,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8657586206896551</v>
+        <v>0.899510177843337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7448275862068966</v>
+        <v>0.7545216016179939</v>
       </c>
       <c r="D6" t="n">
-        <v>0.89</v>
+        <v>0.9044727510000031</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8307692307692308</v>
+        <v>0.8394238059181642</v>
       </c>
       <c r="F6" t="n">
-        <v>0.827906976744186</v>
+        <v>0.846641199776237</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8289855072463768</v>
+        <v>0.8442028985507246</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7854545454545454</v>
+        <v>0.7941162618048327</v>
       </c>
     </row>
   </sheetData>

--- a/5种模型性能比较.xlsx
+++ b/5种模型性能比较.xlsx
@@ -1,37 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\17927\Desktop\mechine study\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68998E75-D007-44B8-9292-46853A54AB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model_Metrics" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Model_Metrics" sheetId="1" r:id="rId1"/>
+    <sheet name="AUC_Confidence_Intervals" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>PPV</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>F1-score</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>95% CI Lower</t>
+  </si>
+  <si>
+    <t>95% CI Upper</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +111,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,202 +435,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sensitivity</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Specificity</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PPV</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>NPV</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>F1-score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9050482209013598</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7851207013937896</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9049572295621043</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.8451393406297603</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.8632704525570623</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.8568840579710144</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8136607599843231</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DT</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.7585870704900411</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7296091653225252</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7875649756575572</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.6941006304981996</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8137012848275351</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.7634057971014492</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.710108055252746</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>LightGBM</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.905696602486997</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7969499037294738</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8729124981618284</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.8058752341118808</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.866220350573054</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8427536231884059</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8010657596851832</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9025089142465653</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7853151872614607</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.874124457433297</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.8055281657106471</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8593211500328586</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.8384057971014492</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.7946034512259517</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>LR</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.899510177843337</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7545216016179939</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9044727510000031</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8394238059181642</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.846641199776237</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.8442028985507246</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.7941162618048327</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0.90724200855552461</v>
+      </c>
+      <c r="C2">
+        <v>0.78147299206703413</v>
+      </c>
+      <c r="D2">
+        <v>0.9049209692222252</v>
+      </c>
+      <c r="E2">
+        <v>0.85007383807002679</v>
+      </c>
+      <c r="F2">
+        <v>0.85652971706556547</v>
+      </c>
+      <c r="G2">
+        <v>0.85398550724637678</v>
+      </c>
+      <c r="H2">
+        <v>0.81357598803343989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.74872682514043765</v>
+      </c>
+      <c r="C3">
+        <v>0.72513400431778785</v>
+      </c>
+      <c r="D3">
+        <v>0.77231964596308733</v>
+      </c>
+      <c r="E3">
+        <v>0.687300554327827</v>
+      </c>
+      <c r="F3">
+        <v>0.80341467799569488</v>
+      </c>
+      <c r="G3">
+        <v>0.75326086956521743</v>
+      </c>
+      <c r="H3">
+        <v>0.7048890643934782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.90498074645582027</v>
+      </c>
+      <c r="C4">
+        <v>0.78452724330728141</v>
+      </c>
+      <c r="D4">
+        <v>0.89082487244275299</v>
+      </c>
+      <c r="E4">
+        <v>0.8318163586918651</v>
+      </c>
+      <c r="F4">
+        <v>0.85648825983714649</v>
+      </c>
+      <c r="G4">
+        <v>0.84710144927536235</v>
+      </c>
+      <c r="H4">
+        <v>0.80695298725565345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.90438786384378123</v>
+      </c>
+      <c r="C5">
+        <v>0.77874280518605721</v>
+      </c>
+      <c r="D5">
+        <v>0.88189853109994176</v>
+      </c>
+      <c r="E5">
+        <v>0.82005916320572125</v>
+      </c>
+      <c r="F5">
+        <v>0.8519346339620435</v>
+      </c>
+      <c r="G5">
+        <v>0.83913043478260863</v>
+      </c>
+      <c r="H5">
+        <v>0.79771519563253268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.89714740501117007</v>
+      </c>
+      <c r="C6">
+        <v>0.74393789457212123</v>
+      </c>
+      <c r="D6">
+        <v>0.89955234261264516</v>
+      </c>
+      <c r="E6">
+        <v>0.83562462671791127</v>
+      </c>
+      <c r="F6">
+        <v>0.83527473640065109</v>
+      </c>
+      <c r="G6">
+        <v>0.83550724637681151</v>
+      </c>
+      <c r="H6">
+        <v>0.78652643990107729</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0.87039924223525988</v>
+      </c>
+      <c r="C2">
+        <v>0.94039041293715397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.71728668999959599</v>
+      </c>
+      <c r="C3">
+        <v>0.82097193069005914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.86321593080625658</v>
+      </c>
+      <c r="C4">
+        <v>0.93532889677995035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.86744650411937629</v>
+      </c>
+      <c r="C5">
+        <v>0.93829832346683073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.86115181370723648</v>
+      </c>
+      <c r="C6">
+        <v>0.93386887594793611</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>